--- a/dataDB.xlsx
+++ b/dataDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\OneDrive\Escritorio\Álvaro\Cosas del IES\STEMbach\rasa-chatbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\OneDrive\Escritorio\Álvaro\Cosas del IES\STEMbach\rasa-chatbot - user-centered-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE5C8F-582F-4B5A-B14F-BA2155513F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E3DC08-B706-498A-9334-81B546DF3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{872FEFE2-B0FE-4B46-BC78-89C7E0939DBF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{872FEFE2-B0FE-4B46-BC78-89C7E0939DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="dataDB" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="320">
   <si>
     <t>ASIGNATURA</t>
   </si>
@@ -102,6 +102,9 @@
     <t>biologia</t>
   </si>
   <si>
+    <t>dibujo artistico</t>
+  </si>
+  <si>
     <t>dibujo tecnico</t>
   </si>
   <si>
@@ -114,12 +117,18 @@
     <t>tic</t>
   </si>
   <si>
+    <t>geologia</t>
+  </si>
+  <si>
     <t>La asignatura de Alemán en el Bachillerato se centra en preparar a los estudiantes para obtener el título oficial del Goethe Institut. Durante el curso, se afianzan y amplían los conocimientos gramaticales y el vocabulario adquiridos en años anteriores, y se trabajan las cuatro habilidades lingüísticas: comprensión lectora, comprensión auditiva, expresión escrita y expresión oral.</t>
   </si>
   <si>
     <t>La asignatura de Biología brinda la oportunidad de adentrarse en el mundo de las ciencias biosanitarias y biotecnológicas, siendo de gran importancia para aquellos interesados en cursar carreras relacionadas con ese campo. Los contenidos se dividen en cinco bloques principales, abarcando desde las bases moleculares y fisicoquímicas de la vida hasta el estudio de la genética, los microorganismos, la biotecnología y la inmunología.</t>
   </si>
   <si>
+    <t>La asignatura de Dibujo Artístico en bachillerato desarrolla habilidades y conceptos del dibujo como herramienta creativa y comunicativa. A través de Dibujo Artístico I y II, se adquieren conocimientos técnicos y estéticos, fomentando la creatividad y el pensamiento divergente. Esta asignatura ofrece una visión amplia de las aplicaciones del dibujo, preparando a los estudiantes para estudios artísticos o tecnológicos. Los contenidos incluyen el uso del dibujo como herramienta, elementos como línea, forma, composición, luz y color. Se busca abordar la asignatura de manera integrada, brindando atención personalizada para guiar a los estudiantes hacia su expresión artística personal.</t>
+  </si>
+  <si>
     <t>El Dibujo Técnico es una asignatura fundamental en la ABAU y en disciplinas como ingeniería, diseño industrial, bellas artes y arquitectura. Su objetivo es desarrollar habilidades de comunicación objetiva en un entorno complejo donde el diseño y la fabricación de productos son vitales. Se utiliza como herramienta para visualizar y definir ideas con precisión en proyectos e investigaciones. En el curso de Dibujo Técnico II se abordan bloques de geometría, sistemas de representación y normalización, preparando a los estudiantes para proyectos prácticos en diseño gráfico, industrial o arquitectónico.</t>
   </si>
   <si>
@@ -144,6 +153,9 @@
     <t>Es necesario haber superado y aprobado la asignatura de biología de 1º bachillerato.</t>
   </si>
   <si>
+    <t>Es necesario haber superado y aprobado el dibujo artístico de 1º bachillerato.</t>
+  </si>
+  <si>
     <t>Matemáticas es una asignatura con 4 horas semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
   </si>
   <si>
@@ -159,6 +171,9 @@
     <t>Biología es una asignatura con 4 horas semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
   </si>
   <si>
+    <t>Dibujo artístico es una asignatura con 4 horas semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
+  </si>
+  <si>
     <t>Dibujo técnico es una asignatura con 4 horas semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
   </si>
   <si>
@@ -174,24 +189,105 @@
     <t>Biología es una asignatura que pondera mucho en los grados relacionados con ciencias naturales.</t>
   </si>
   <si>
+    <t>Dibujo artístico es una asignatura que pondera mucho en los grados relacionados con las artes.</t>
+  </si>
+  <si>
     <t>Dibujo técnico es una asignatura que pondera mucho en los grados relacionados con la ingeniería y muchas ciencias.</t>
   </si>
   <si>
     <t>historia</t>
   </si>
   <si>
+    <t>literatura</t>
+  </si>
+  <si>
     <t>lengua</t>
   </si>
   <si>
     <t>lingua</t>
   </si>
   <si>
+    <t>musica</t>
+  </si>
+  <si>
     <t>ingles</t>
   </si>
   <si>
     <t>filosofia</t>
   </si>
   <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>horas</t>
+  </si>
+  <si>
+    <t>proyectos</t>
+  </si>
+  <si>
+    <t>extracurriculares</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de matemáticas.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas semanales de filosofía.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de economía.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas semanales de inglés.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas semanales de música.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas semanales de lingua.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de literatura.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de geología.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de TIC.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de química.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de historia.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas semanales de francés.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de dibujo técnico</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de dibujo artístico.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de biología.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas semanales de alemán.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de física.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas semanales de tecnología.</t>
+  </si>
+  <si>
+    <t>La actividad extracurricular es la participación en la banda de música.</t>
+  </si>
+  <si>
+    <t>Se hacen prácticas en el taller de tecnología.</t>
+  </si>
+  <si>
     <t>Se hace un examen de francés por cada unidad dada.</t>
   </si>
   <si>
@@ -210,6 +306,12 @@
     <t>La asignatura de TIC II es una continuación de la materia de 1º de Bachillerato, pero con un enfoque más centrado en el mundo de la programación. Estudiar esta materia mejorará tu formación, ya que muchos programas universitarios incluyen asignaturas de programación en los primeros años. Los temas a tratar incluyen: Programación: fases de creación de un programa (diseño, implementación, desarrollo), concepto de pseudocódigo, diagramas de flujo, programación orientada a objetos, Git, depuración de código, entre otros (60% de los contenidos del curso). Diseño web: HTML5, formularios, JavaScript, CSS (20%). Creación audiovisual: color, edición de video, animación 3D (10%). Seguridad en redes y sistemas operativos (10%).</t>
   </si>
   <si>
+    <t>La asignatura de Historia de la Música y de la Danza ofrece a los estudiantes una visión global de la evolución de ambas disciplinas, estableciendo relaciones entre géneros, estilos y épocas en las que surgieron. Se introduce a los estudiantes en la comprensión de los períodos históricos en los que se clasifica tradicionalmente la música y la danza, desde la Antigüedad clásica hasta la actualidad, prestando atención a diferentes géneros y estilos y analizando su relación con la sociedad, su contexto y su evolución histórica a través del reconocimiento de características relevantes que configuran un estilo y los distintos enfoques de la creación musical y dancística que se han desarrollado en conjunto a lo largo del tiempo.</t>
+  </si>
+  <si>
+    <t>La asignatura de literatura consiste en conocer, estudiar y analizar diversos textos de la literatura española a lo largo de la historia.</t>
+  </si>
+  <si>
     <t>La materia de lengua trata de enseñar los conceptos de gramática y sintaxis que corresponden al nivel de 2º de bachillerato que se requieren para superar satisfactoriamente la ABAU.</t>
   </si>
   <si>
@@ -219,6 +321,15 @@
     <t>En filosofía se trata de explicar las corrientes filosóficas y autores que marcaron la historia de la filosofía, y que además resultan básicos para superar correctamente la ABAU.\</t>
   </si>
   <si>
+    <t>En la asignatura de economía se enseñan los principios relacionados con la econmía, la empresa, los negocios y la contabilidad.</t>
+  </si>
+  <si>
+    <t>La metodología de la asignatura de Economía se enfoca en el aprendizaje autónomo, el trabajo en equipo y la aplicación práctica de los métodos de investigación. Se promueve la indagación, el análisis de información, la reflexión y la comunicación ordenada de conclusiones relevantes. Se fomenta el trabajo cooperativo, el intercambio entre pares y la reflexión sobre el proceso de aprendizaje. Se proporciona diversidad de enfoques y se relaciona la economía con otras ciencias sociales. Se abordan temas transversales y se utilizan recursos como exposiciones orales, actividades, coloquios, videos y herramientas en línea.</t>
+  </si>
+  <si>
+    <t>La asignatura de Economía se estructura en siete bloques temáticos que abordan los aspectos clave de las empresas y su gestión. Se exploran temas como la empresa y el empresario, el desarrollo empresarial, la organización y dirección, la función productiva, la función comercial, la información en la empresa y la función financiera. La metodología se basa en el planteamiento de problemas cercanos al entorno, el fomento del aprendizaje significativo, la indagación, el trabajo cooperativo y el uso de diversos recursos como exposiciones, actividades, coloquios y tecnologías de la información. La organización didáctica se establece en unidades que cubren cada uno de los temas mencionados, promoviendo la comprensión de conceptos, el análisis de casos prácticos y la aplicación de técnicas empresariales.</t>
+  </si>
+  <si>
     <t>La metodología didáctica en la asignatura de Química en Bachillerato se enfoca en favorecer la capacidad de los estudiantes para aprender de forma autónoma, trabajar en equipo y aplicar métodos de investigación apropiados. La especialización de las materias en esta etapa determina la metodología, considerando el componente epistemológico y las exigencias del conocimiento específico de la Química. Se busca adaptarse a las características de los estudiantes, fomentar la autonomía, promover la participación activa, despertar el interés por el aprendizaje, integrar conocimientos de diferentes disciplinas, desarrollar capacidades intelectuales y asegurar la funcionalidad práctica de los contenidos. Se emplea una variedad de metodologías para atender las diferentes formas de aprendizaje de los estudiantes.</t>
   </si>
   <si>
@@ -231,9 +342,18 @@
     <t>En la asignatura de TIC se abordan diversos contenidos, entre ellos: estructuras de almacenamiento de datos, como variables, vectores y matrices; diagramas de flujo y su diseño utilizando herramientas informáticas; transformación de diagramas de flujo en pseudocódigo o código fuente; programación modular con módulos, procedimientos y funciones; diseño y realización de pruebas, depuración y optimización; documentación, análisis de código y repositorios de código; uso básico de entornos de desarrollo para edición de programas y generación de ejecutables; lenguajes de marcado para la creación de documentos web; accesibilidad y usabilidad en Internet; herramientas de gestión de contenidos de la web 2.0; características de la web 2.0; medidas de seguridad físicas y lógicas en redes, incluyendo copias de seguridad, control de acceso y análisis de logs; seguridad lógica, protección contra virus y respaldo de información; seguridad física en redes; y tipos de código malicioso y sus usos, como virus, troyanos, puertas traseras y publicidad.</t>
   </si>
   <si>
+    <t>La metodología didáctica en la asignatura de Geología se enfoca en fomentar la autonomía y la capacidad de autoaprendizaje del alumnado, así como en promover el trabajo en equipo y la aplicación de métodos de investigación. Se emplean diversas estrategias metodológicas, como crear un ambiente de aula propicio para aprendizajes significativos y comunicación, fomentar la autonomía y la creatividad a través de diseños experimentales y el uso de las TIC, tener en cuenta las ideas previas de los estudiantes para diseñar actividades cooperativas, proporcionar herramientas para iniciarse en la investigación, relacionar los fenómenos geológicos/ambientales con la vida cotidiana, plantear situaciones problemáticas abiertas, promover una cultura científica interdisciplinaria, construir aprendizajes cooperativos, generar una imagen dinámica de la ciencia y facilitar el proceso de aprendizaje del alumnado mediante la evaluación y la orientación.</t>
+  </si>
+  <si>
+    <t>La asignatura de Geología abarca una amplia variedad de contenidos. Algunos de ellos incluyen: la perspectiva general de la geología, sus objetos de estudio, métodos de trabajo y utilidad científica y social; la metodología científica en geología; el tiempo geológico y principios fundamentales de la geología; la Tierra como planeta dinámico y la teoría de la Tectónica de Placas; la xeoplanetología y las características de otros planetas en comparación con la evolución geológica de la Tierra; la geología en la vida cotidiana y los problemas ambientales y geológicos globales. También se abordan temas como la materia mineral, los minerales y sus características, técnicas de identificación de minerales, formación y transformación de minerales, rocas ígneas, sedimentarias y metamórficas, la tectónica de placas, los procesos geológicos externos, el relieve y la estructura geológica, el tiempo en geología, métodos de datación, interpretación de cortes y mapas geológicos, cambio climático, recursos minerales y energéticos, eventos geológicos en la Península Ibérica y las Islas Canarias, técnicas de interpretación cartográfica y orientación, y prácticas de campo para el estudio del patrimonio geológico.</t>
+  </si>
+  <si>
     <t>La asignatura de Lengua Castellana y Literatura se basa en un enfoque competencial que busca mejorar la capacidad comunicativa de los estudiantes. Para lograr este objetivo, se emplea una metodología innovadora que incluye enfoques comunicativos y proyectos transversales, promoviendo la reflexión metacomunicativa y el contraste entre lenguas. Se fomenta el desarrollo de habilidades de comprensión y expresión oral y escrita a través de diversas actividades, como lectura, análisis y comentario de textos, producción de textos en distintos formatos, exposiciones y presentaciones orales, y lectura digital. Se enfatiza el aprendizaje mediante actividades complejas y el trabajo colaborativo, donde se aplican las capacidades adquiridas y se fomenta la autoevaluación y la evaluación entre iguales. Se fomenta la creatividad y el pensamiento crítico a través de actividades abiertas que requieren procesos cognitivos complejos. Además, se integran las TIC como herramientas fundamentales para el aprendizaje y la comunicación.</t>
   </si>
   <si>
+    <t>La asignatura de Literatura se basa en un enfoque competencial que busca mejorar la capacidad comunicativa de los estudiantes. Para lograr este objetivo, se emplea una metodología innovadora que incluye enfoques comunicativos y proyectos transversales, promoviendo la reflexión metacomunicativa y el contraste entre lenguas. Se fomenta el desarrollo de habilidades de comprensión y expresión oral y escrita a través de diversas actividades, como lectura, análisis y comentario de textos, producción de textos en distintos formatos, exposiciones y presentaciones orales, y lectura digital. Se enfatiza el aprendizaje mediante actividades complejas y el trabajo colaborativo, donde se aplican las capacidades adquiridas y se fomenta la autoevaluación y la evaluación entre iguales. Se fomenta la creatividad y el pensamiento crítico a través de actividades abiertas que requieren procesos cognitivos complejos. Además, se integran las TIC como herramientas fundamentales para el aprendizaje y la comunicación.</t>
+  </si>
+  <si>
     <t>Lingua e Literatura 2º Bacharelato de la editorial Santillana.</t>
   </si>
   <si>
@@ -255,6 +375,9 @@
     <t xml:space="preserve">La metodología de la asignatura de Filosofía se basa en el enfoque constructivista de la aprendizaje significativo. El objetivo es que los alumnos comprendan las grandes cuestiones filosóficas, los contextos en los que surgieron y las relaciones entre ellas, desarrollando así su capacidad crítica para comprender el mundo en el que viven. </t>
   </si>
   <si>
+    <t>practicas</t>
+  </si>
+  <si>
     <t>En matemáticas se hacen pruebas escritas por una o varias unidades didácticas y una recuperación por trimestre.</t>
   </si>
   <si>
@@ -270,9 +393,24 @@
     <t>En matemáticas se hace la valoración conjunta de los instrumentos de evaluación (OBS), (CAD), (TI)/(CON El), (TG) y (PO) supondrá el 20% de la cualificación, mientras que la nota obtenida en las pruebas escritas.</t>
   </si>
   <si>
+    <t>No se hacen grandes proyectos durante el curso en matemáticas.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en matemáticas.</t>
+  </si>
+  <si>
+    <t>En matemáticas no se hacen prácticas.</t>
+  </si>
+  <si>
     <t>En tecnolog;ia se hace un examen escrito por unidad didáctica y al final de cada evaluación una recuperación.</t>
   </si>
   <si>
+    <t>En tecnología no hay actividades extracurriculares.</t>
+  </si>
+  <si>
+    <t>En tecnología se pueden hacer algunos proyectos relacionados con la materia.</t>
+  </si>
+  <si>
     <t>Los exámenes forman el 80% de la nota de tecnología, los trabajos el 15% y la actitud el 5%.</t>
   </si>
   <si>
@@ -306,6 +444,15 @@
     <t>El 90% de la nota de física es la media ponderada de los exámenes y el 10% restante corresponde al resultado de trabajos y proyectos.</t>
   </si>
   <si>
+    <t>En física no se hacen grandes proyectos.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en física.</t>
+  </si>
+  <si>
+    <t>En física se hacen prácticas en el laboratorio.</t>
+  </si>
+  <si>
     <t>Se usa el libro de Física 2 Bachillerato Santillana</t>
   </si>
   <si>
@@ -330,6 +477,15 @@
     <t>Alemán es una asignatura que pondera mucho en todos los grados relacionados con las letras, las ciencias sociales y jurídicas.</t>
   </si>
   <si>
+    <t>No se hacen grandes proyectos en alemán.</t>
+  </si>
+  <si>
+    <t>En alemán se pueden hacer algunas actividades extracurriculares.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas en alemán.</t>
+  </si>
+  <si>
     <t>En biología se hace al menos un examen por evaluación.</t>
   </si>
   <si>
@@ -348,6 +504,45 @@
     <t>El 90% de la nota de biología la forman las pruebas escritas, y el 10% restante los trabajos opcionales.</t>
   </si>
   <si>
+    <t>No se hacen grandes proyectos en biología.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en biología.</t>
+  </si>
+  <si>
+    <t>En biología se hacen prácticas en el laboratorio.</t>
+  </si>
+  <si>
+    <t>En dibujo artístico se hacen al menos dos exámenes por evaluación.</t>
+  </si>
+  <si>
+    <t>En dinujo artístico no hay libro.</t>
+  </si>
+  <si>
+    <t>En dibujo artístico la competencias clave están indicadas en el DOG.</t>
+  </si>
+  <si>
+    <t>Los profesores de dibujo artístico son: Pedro Ávila Durán y Juan José Raíces Silva</t>
+  </si>
+  <si>
+    <t>En la asignatura de dibujo artístico se abordan diversos temas como la percepción y descripción objetiva de la forma, los modelos analíticos y sintéticos, la retentiva y memoria visual, la psicología de la forma y composición, el comportamiento de las formas tridimensionales en el espacio, el valor expresivo de la luz y el color, la ruptura de la tradición figurativa, la representación de la forma con fines expresivos, el análisis de la figura humana, la anatomía artística, el estudio del movimiento de la figura humana, la antropometría, las técnicas secas y húmedas en el proceso creativo, y el empleo de las herramientas TIC. Se fomenta una actitud creativa en el proceso de aprendizaje.</t>
+  </si>
+  <si>
+    <t>La metodología de dibujo artístico utilizada se enfoca en el desarrollo de la competencia artística del alumnado, abarcando la conciencia de expresiones culturales y conectándose con otras competencias clave. Las actividades propuestas permiten el uso de diversos recursos y formas expresivas, promoviendo la individualidad y el espíritu colaborativo a través de proyectos grupales. Los contenidos se presentan mediante modelos reales en el aula y medios digitales, y se utilizan como ejemplos. La metodología activa se centra en el saber ver y saber hacer, fomentando la creatividad y expresividad de cada estudiante a través de una atención individualizada.</t>
+  </si>
+  <si>
+    <t>Las prácticas valen el 20% de la nota de dibujo artístico, el 80% son pruebas frente al profesor.</t>
+  </si>
+  <si>
+    <t>Se puede hacer algún proyecto artístico en dibujo artístico.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en dibujo artístico.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas en dibujo artístico.</t>
+  </si>
+  <si>
     <t>En dibujo técnico se hacen al menos dos exámenes por evaluación.</t>
   </si>
   <si>
@@ -369,6 +564,15 @@
     <t>Las prácticas valen el 20% de la nota de dibujo técnico, el 80% son pruebas frente al profesor</t>
   </si>
   <si>
+    <t>No se hacen grandes proyectos en dibujo técnico.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en dibujo técnico.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas en dibujo técnico.</t>
+  </si>
+  <si>
     <t>El libro que se usa en francés es: Génération Lycée 2 de la Editorial Santillana</t>
   </si>
   <si>
@@ -393,6 +597,15 @@
     <t>Francés pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
+    <t>No se hacen grandes proyectos en francés.</t>
+  </si>
+  <si>
+    <t>Puede haber actividades extracurriculares en francés.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas en francés.</t>
+  </si>
+  <si>
     <t>En historia se hacen al menos dos exámenes por evaluación.</t>
   </si>
   <si>
@@ -423,6 +636,15 @@
     <t>Historia pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
+    <t>Se hacen algunos proyectos en historia.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en historia.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas en historia.</t>
+  </si>
+  <si>
     <t>Se hacen al menos dos exámenes por evaluación en química.</t>
   </si>
   <si>
@@ -447,6 +669,15 @@
     <t>Química pondera mucho en aquellos grados relacionados con las ciencias naturales y físicaas, y con las ingenierías.</t>
   </si>
   <si>
+    <t>No se hacen grandes proyectos en química.</t>
+  </si>
+  <si>
+    <t>En química se hacen múltiples prácticas en el laboratorio.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en química.</t>
+  </si>
+  <si>
     <t>En TIC se hacen varias pruebas teórico-prácticas por trimestre.</t>
   </si>
   <si>
@@ -471,6 +702,66 @@
     <t>TIC pondera mucho en aquellos grados relacionados con las ciencias naturales y físicaas, y con las ingenierías.</t>
   </si>
   <si>
+    <t>Se pueden hacer proyectos relacionados con la materia de TIC</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en TIC.</t>
+  </si>
+  <si>
+    <t>En TIC se hacen prácticas con los computadores.</t>
+  </si>
+  <si>
+    <t>En geología se abordan conocimientos, habilidades y actitudes propias de las ciencias geológicas y ambientales, divididos en siete bloques temáticos. Se trabajan aspectos como la experimentación en geología y ciencias ambientales, la tectónica de placas y geodinámica interna, los procesos geológicos externos, la mineralogía, la petrología, las capas fluidas de la Tierra y la gestión sostenible de los recursos naturales.</t>
+  </si>
+  <si>
+    <t>En geología se hará por lo menos una prueba escrita por evaluación.</t>
+  </si>
+  <si>
+    <t>El libro que se usa en geología es: Geología 2º bachillerato de la editorial Edelvives.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan en geología son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>La profesora de geología es: Ana Martínez San Luis</t>
+  </si>
+  <si>
+    <t>Es necesario haber cursado geología en 1º de bachillerato.</t>
+  </si>
+  <si>
+    <t>Como todas las asignaturas, geología requiere de dedicación, estudio y esfuerzo para poder aprobarla satisfactoriamente.</t>
+  </si>
+  <si>
+    <t>El 90% de la nota de geología la conforman los exámenes escritos, el 10% restante las actividades complementarias.</t>
+  </si>
+  <si>
+    <t>Geología pondera mucho en aquellos grados relacionados con las ciencias naturales.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos en geología.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en geología.</t>
+  </si>
+  <si>
+    <t>Se hacen prácticas en el laboratorio de geología.</t>
+  </si>
+  <si>
+    <t>En literatura se hacen al menos dos exámenes por evaluación.</t>
+  </si>
+  <si>
+    <t>En literatura no se usa libro, indica el profesor los contenidos.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan en literatura son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>Las profesoras de literatura son: Ana Díaz Faraldo, Carmen Villasenín Carballo, Marta Gende García y María Isabel Fernández Domínguez.</t>
+  </si>
+  <si>
+    <t>En literatura se analizan obras y fragmentos literarios representativos del siglo XX hasta la actualidad, se reflexiona sobre estereotipos y se realizan trabajos educativos relacionados con la literatura contemporánea.</t>
+  </si>
+  <si>
     <t>La asignatura de lengua abarca diversos aspectos relacionados con la comunicación oral y escrita, el análisis del lenguaje y la literatura del siglo XX hasta la actualidad. Se estudia la comunicación oral en ámbitos educativos, periodísticos, profesionales y empresariales, así como la comprensión y producción de textos orales de los medios de comunicación social. Se abordan también la comunicación escrita en diversos ámbitos sociales, el análisis y comentario de textos escritos, y la planificación, realización, revisión y mejora de textos escritos. En cuanto al lenguaje, se estudia el léxico castellano, las categorías gramaticales (sustantivo, adjetivo, verbo, pronombre, determinativos, adverbio, preposiciones y conjunciones), el significado de las palabras, las estructuras sintácticas, la organización textual, la objetividad y subjetividad, la deixis temporal, espacial y personal, y el español actual en diferentes contextos. Además, se analizan obras y fragmentos literarios representativos del siglo XX hasta la actualidad, se reflexiona sobre estereotipos y se realizan trabajos educativos relacionados con la literatura contemporánea.</t>
   </si>
   <si>
@@ -486,6 +777,27 @@
     <t>En lengua se hacen al menos dos exámenes por evaluación.</t>
   </si>
   <si>
+    <t>Es necesario haber cursado de literatura en 1º de bachillerato.</t>
+  </si>
+  <si>
+    <t>Como todas las asignaturas, literatura requiere de dedicación, estudio y esfuerzo para poder aprobarla satisfactoriamente.</t>
+  </si>
+  <si>
+    <t>El 90% de la nota de literatura la forman las pruebas escritas, el 10% otro tipo de trabajos.</t>
+  </si>
+  <si>
+    <t>Literatura pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos en literatura.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en literatura.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas en literatura.</t>
+  </si>
+  <si>
     <t>No es necesario haber cursado lengua en 1º de bachillerato.</t>
   </si>
   <si>
@@ -498,6 +810,18 @@
     <t>Lengua pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
+    <t>Se imparten 3 horas semanales de lengua.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos en lengua.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en lengua.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas en lengua.</t>
+  </si>
+  <si>
     <t>La materia de lingua trata de enseñar los conceptos de gramática y sintaxis que corresponden al nivel de 2º de bachillerato que se requieren para superar satisfactoriamente la ABAU.</t>
   </si>
   <si>
@@ -522,6 +846,51 @@
     <t>Lingua pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
+    <t>No se hacen grandes proyectos en lingua.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en lingua.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas en lingua.</t>
+  </si>
+  <si>
+    <t>En música se hace un único examen por evaluación.</t>
+  </si>
+  <si>
+    <t>En música no se usa libro, el profesor dictará los apuntes.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan en música son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>Los profesores de música son: Manuel Jesús Cela Folgueiras y Enrique Outomuro Vázquez</t>
+  </si>
+  <si>
+    <t>Los contenidos de música son toda la Historia de la música que considere oportuna el profesor (no hay programación).</t>
+  </si>
+  <si>
+    <t>La metodología de música es la que considere el profesor (no hay programación).</t>
+  </si>
+  <si>
+    <t>Es necesario haber cursado música en 1º de bachillerato.</t>
+  </si>
+  <si>
+    <t>Música no requiere apenas de dedicación, estudio y esfuerzo para poder aprobarla satisfactoriamente.</t>
+  </si>
+  <si>
+    <t>El profesor de música decidirá arbitrariamente cuánto vale cada parte (no hay programación).</t>
+  </si>
+  <si>
+    <t>Música pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos en música.</t>
+  </si>
+  <si>
+    <t>Se hacen prácticas  con los instrumentos y la banda en música.</t>
+  </si>
+  <si>
     <t>En inglés se hace al menos un examen por evaluación.</t>
   </si>
   <si>
@@ -543,6 +912,15 @@
     <t>Inglés pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
+    <t>No se hacen grandes proyectos en inglés.</t>
+  </si>
+  <si>
+    <t>Puede haber de vez en cuando alguna actividad extracurricular en inglés.</t>
+  </si>
+  <si>
+    <t>En inglés no se hacen prácticas.</t>
+  </si>
+  <si>
     <t>En filosofía se hace al menos un examen por evaluación.</t>
   </si>
   <si>
@@ -565,6 +943,48 @@
   </si>
   <si>
     <t>FIlosofía pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos de filosofía.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en filosofía.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas en filosofía.</t>
+  </si>
+  <si>
+    <t>En economía se hacen al menos dos exámenes por evaluación.</t>
+  </si>
+  <si>
+    <t>El libro que se usa en economía es Economía 2º bachillerato de la editorial SM</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan en economía son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>El profesor de economía es Manuel Maximino Fandiño Castro</t>
+  </si>
+  <si>
+    <t>Es necesario haber cursado economía en 1º de bachillerato.</t>
+  </si>
+  <si>
+    <t>Como todas las asignaturas, economía requiere de dedicación, estudio y esfuerzo para poder aprobarla satisfactoriamente.</t>
+  </si>
+  <si>
+    <t>El 90% de la nota de economía la conforman los exámenes escritos, y el 10% el trabajo en clase y en el aula virtual.</t>
+  </si>
+  <si>
+    <t>Economía pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
+  </si>
+  <si>
+    <t>En economía no se hacen grandes proyectos.</t>
+  </si>
+  <si>
+    <t>En economía no hay actividades extracurriculares.</t>
+  </si>
+  <si>
+    <t>En economía no se hacen prácticas.</t>
   </si>
 </sst>
 </file>
@@ -932,11 +1352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314BEB4-A4D8-41A9-B31E-6027A7F74DE0}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,21 +1364,21 @@
     <col min="1" max="1" width="22.21875" customWidth="1"/>
     <col min="2" max="4" width="44.44140625" customWidth="1"/>
     <col min="5" max="5" width="44.77734375" customWidth="1"/>
-    <col min="6" max="7" width="44.88671875" customWidth="1"/>
-    <col min="8" max="8" width="45.44140625" customWidth="1"/>
-    <col min="9" max="10" width="44.77734375" customWidth="1"/>
-    <col min="11" max="11" width="45" customWidth="1"/>
-    <col min="12" max="12" width="45.88671875" customWidth="1"/>
-    <col min="13" max="13" width="45.5546875" customWidth="1"/>
-    <col min="14" max="14" width="46.33203125" customWidth="1"/>
-    <col min="15" max="15" width="45.33203125" customWidth="1"/>
-    <col min="16" max="16" width="45.44140625" customWidth="1"/>
-    <col min="17" max="17" width="45.21875" customWidth="1"/>
-    <col min="18" max="18" width="45.77734375" customWidth="1"/>
-    <col min="19" max="19" width="45.21875" customWidth="1"/>
+    <col min="6" max="8" width="44.88671875" customWidth="1"/>
+    <col min="9" max="9" width="45.44140625" customWidth="1"/>
+    <col min="10" max="11" width="44.77734375" customWidth="1"/>
+    <col min="12" max="12" width="45" customWidth="1"/>
+    <col min="13" max="13" width="45.88671875" customWidth="1"/>
+    <col min="14" max="14" width="45.5546875" customWidth="1"/>
+    <col min="15" max="15" width="46.33203125" customWidth="1"/>
+    <col min="16" max="16" width="45.33203125" customWidth="1"/>
+    <col min="17" max="17" width="45.44140625" customWidth="1"/>
+    <col min="18" max="18" width="45.21875" customWidth="1"/>
+    <col min="19" max="19" width="45.77734375" customWidth="1"/>
+    <col min="20" max="20" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -984,28 +1404,43 @@
         <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
         <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,28 +1466,43 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1066,135 +1516,179 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="T4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>114</v>
+        <v>163</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" t="s">
-        <v>166</v>
+        <v>230</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="R5" t="s">
+        <v>289</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="T5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1208,88 +1702,117 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>115</v>
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
+        <v>174</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>143</v>
+        <v>184</v>
+      </c>
+      <c r="J7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>168</v>
+        <v>220</v>
+      </c>
+      <c r="M7" t="s">
+        <v>232</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="T7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1297,356 +1820,619 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>117</v>
+        <v>166</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>177</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>119</v>
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
+      </c>
+      <c r="H12" t="s">
+        <v>178</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="T12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>121</v>
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1654,7 +2440,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1662,7 +2448,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1670,7 +2456,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1678,114 +2464,114 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
   </sheetData>

--- a/dataDB.xlsx
+++ b/dataDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\OneDrive\Escritorio\Álvaro\Cosas del IES\STEMbach\rasa-chatbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\OneDrive\Escritorio\Álvaro\Cosas del IES\STEMbach\rasa-chatbot - informal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE5C8F-582F-4B5A-B14F-BA2155513F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBF1E07-7BCC-4045-819F-7612346F7B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{872FEFE2-B0FE-4B46-BC78-89C7E0939DBF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{872FEFE2-B0FE-4B46-BC78-89C7E0939DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="dataDB" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="320">
   <si>
     <t>ASIGNATURA</t>
   </si>
@@ -72,9 +72,6 @@
     <t>El proceso de enseñanza y aprendizaje competencial debe abordarse en todas las materias, especialmente en matemáticas. Por ello, las competencias clave son: comunicación lingüística, matemática y básicas en ciencia y tecnología, digital, aprender a aprender, sociales y cívicas, sentido de iniciativa y espíritu emprendedor.</t>
   </si>
   <si>
-    <t>El proceso de resolución de problemas en matemáticas, el uso de estrategias y procedimientos, la obtención de soluciones coherentes, la iniciación a la demostración matemática y el desarrollo de habilidades de comunicación oral y escrita. Además, se fomenta el uso de herramientas tecnológicas para recopilar, organizar y representar datos, así como la realización de proyectos e investigaciones matemáticas individualmente y en equipo. También se practica la matematización y modelización en contextos reales y matemáticos.</t>
-  </si>
-  <si>
     <t>libros</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
     <t>biologia</t>
   </si>
   <si>
+    <t>dibujo artistico</t>
+  </si>
+  <si>
     <t>dibujo tecnico</t>
   </si>
   <si>
@@ -114,13 +114,16 @@
     <t>tic</t>
   </si>
   <si>
+    <t>geologia</t>
+  </si>
+  <si>
     <t>La asignatura de Alemán en el Bachillerato se centra en preparar a los estudiantes para obtener el título oficial del Goethe Institut. Durante el curso, se afianzan y amplían los conocimientos gramaticales y el vocabulario adquiridos en años anteriores, y se trabajan las cuatro habilidades lingüísticas: comprensión lectora, comprensión auditiva, expresión escrita y expresión oral.</t>
   </si>
   <si>
     <t>La asignatura de Biología brinda la oportunidad de adentrarse en el mundo de las ciencias biosanitarias y biotecnológicas, siendo de gran importancia para aquellos interesados en cursar carreras relacionadas con ese campo. Los contenidos se dividen en cinco bloques principales, abarcando desde las bases moleculares y fisicoquímicas de la vida hasta el estudio de la genética, los microorganismos, la biotecnología y la inmunología.</t>
   </si>
   <si>
-    <t>El Dibujo Técnico es una asignatura fundamental en la ABAU y en disciplinas como ingeniería, diseño industrial, bellas artes y arquitectura. Su objetivo es desarrollar habilidades de comunicación objetiva en un entorno complejo donde el diseño y la fabricación de productos son vitales. Se utiliza como herramienta para visualizar y definir ideas con precisión en proyectos e investigaciones. En el curso de Dibujo Técnico II se abordan bloques de geometría, sistemas de representación y normalización, preparando a los estudiantes para proyectos prácticos en diseño gráfico, industrial o arquitectónico.</t>
+    <t>La asignatura de Dibujo Artístico en bachillerato desarrolla habilidades y conceptos del dibujo como herramienta creativa y comunicativa. A través de Dibujo Artístico I y II, se adquieren conocimientos técnicos y estéticos, fomentando la creatividad y el pensamiento divergente. Esta asignatura ofrece una visión amplia de las aplicaciones del dibujo, preparando a los estudiantes para estudios artísticos o tecnológicos. Los contenidos incluyen el uso del dibujo como herramienta, elementos como línea, forma, composición, luz y color. Se busca abordar la asignatura de manera integrada, brindando atención personalizada para guiar a los estudiantes hacia su expresión artística personal.</t>
   </si>
   <si>
     <t>La materia de segunda lengua extranjera se relaciona muy directamente con la competencia en comunicación lingüística, pero, debido a sus trazos comunicativos, sociales y culturales, también contribuye al desarrollo de otras competencias como la de aprender a aprender, la del tratamiento de la información y competencia digital, a la competencia social y ciudadana, a la competencia artística y cultural y a la de la autonomía e iniciativa personal. De manera más tangencial también contribuye a las competencias matemática y del conocimiento y la interacción con el mundo físico, especialmente mediante la utilización de la lengua extranjera como instrumento de información con otros contenidos del currículo.</t>
@@ -144,22 +147,7 @@
     <t>Es necesario haber superado y aprobado la asignatura de biología de 1º bachillerato.</t>
   </si>
   <si>
-    <t>Matemáticas es una asignatura con 4 horas semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
-  </si>
-  <si>
-    <t>Tecnología es una asignatura con 4 horas semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
-  </si>
-  <si>
-    <t>Física es una asignatura con 4 horas semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
-  </si>
-  <si>
-    <t>Alemán es una asignatura con 4 horas semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
-  </si>
-  <si>
-    <t>Biología es una asignatura con 4 horas semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
-  </si>
-  <si>
-    <t>Dibujo técnico es una asignatura con 4 horas semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
+    <t>Es necesario haber superado y aprobado el dibujo artístico de 1º bachillerato.</t>
   </si>
   <si>
     <t>Las matemáticas es una asignatura que pondera mucho en todos los grados relacionados con las ingenierías y ciencias exactas y físicas.</t>
@@ -174,28 +162,46 @@
     <t>Biología es una asignatura que pondera mucho en los grados relacionados con ciencias naturales.</t>
   </si>
   <si>
+    <t>Dibujo artístico es una asignatura que pondera mucho en los grados relacionados con las artes.</t>
+  </si>
+  <si>
     <t>Dibujo técnico es una asignatura que pondera mucho en los grados relacionados con la ingeniería y muchas ciencias.</t>
   </si>
   <si>
     <t>historia</t>
   </si>
   <si>
+    <t>literatura</t>
+  </si>
+  <si>
     <t>lengua</t>
   </si>
   <si>
     <t>lingua</t>
   </si>
   <si>
+    <t>musica</t>
+  </si>
+  <si>
     <t>ingles</t>
   </si>
   <si>
     <t>filosofia</t>
   </si>
   <si>
-    <t>Se hace un examen de francés por cada unidad dada.</t>
-  </si>
-  <si>
-    <t>El francés es una asignatura de gran importancia como optativa, ya que hoy en día conocer tan solo dos lenguas es insuficiente. Además, el francés es hablado por millones de personas por todo el mundo, y es un importante aliado nacional en muchos ámbitos. En las clases nos aseguramos de enseñar la lengua de una forma fácil, correcta y entretenida.</t>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>horas</t>
+  </si>
+  <si>
+    <t>proyectos</t>
+  </si>
+  <si>
+    <t>extracurriculares</t>
+  </si>
+  <si>
+    <t>La actividad extracurricular es la participación en la banda de música.</t>
   </si>
   <si>
     <t>Es necesario haber cursado esta asignatura en 1º de bachillerato.</t>
@@ -210,13 +216,25 @@
     <t>La asignatura de TIC II es una continuación de la materia de 1º de Bachillerato, pero con un enfoque más centrado en el mundo de la programación. Estudiar esta materia mejorará tu formación, ya que muchos programas universitarios incluyen asignaturas de programación en los primeros años. Los temas a tratar incluyen: Programación: fases de creación de un programa (diseño, implementación, desarrollo), concepto de pseudocódigo, diagramas de flujo, programación orientada a objetos, Git, depuración de código, entre otros (60% de los contenidos del curso). Diseño web: HTML5, formularios, JavaScript, CSS (20%). Creación audiovisual: color, edición de video, animación 3D (10%). Seguridad en redes y sistemas operativos (10%).</t>
   </si>
   <si>
+    <t>La asignatura de Historia de la Música y de la Danza ofrece a los estudiantes una visión global de la evolución de ambas disciplinas, estableciendo relaciones entre géneros, estilos y épocas en las que surgieron. Se introduce a los estudiantes en la comprensión de los períodos históricos en los que se clasifica tradicionalmente la música y la danza, desde la Antigüedad clásica hasta la actualidad, prestando atención a diferentes géneros y estilos y analizando su relación con la sociedad, su contexto y su evolución histórica a través del reconocimiento de características relevantes que configuran un estilo y los distintos enfoques de la creación musical y dancística que se han desarrollado en conjunto a lo largo del tiempo.</t>
+  </si>
+  <si>
+    <t>La asignatura de literatura consiste en conocer, estudiar y analizar diversos textos de la literatura española a lo largo de la historia.</t>
+  </si>
+  <si>
     <t>La materia de lengua trata de enseñar los conceptos de gramática y sintaxis que corresponden al nivel de 2º de bachillerato que se requieren para superar satisfactoriamente la ABAU.</t>
   </si>
   <si>
     <t>La asignatura de inglés trata de enseñar aquellos temas de vocabulario y gramática que son necesarios para superar satisfactoriamente las pruebas ABAU.</t>
   </si>
   <si>
-    <t>En filosofía se trata de explicar las corrientes filosóficas y autores que marcaron la historia de la filosofía, y que además resultan básicos para superar correctamente la ABAU.\</t>
+    <t>En la asignatura de economía se enseñan los principios relacionados con la econmía, la empresa, los negocios y la contabilidad.</t>
+  </si>
+  <si>
+    <t>La metodología de la asignatura de Economía se enfoca en el aprendizaje autónomo, el trabajo en equipo y la aplicación práctica de los métodos de investigación. Se promueve la indagación, el análisis de información, la reflexión y la comunicación ordenada de conclusiones relevantes. Se fomenta el trabajo cooperativo, el intercambio entre pares y la reflexión sobre el proceso de aprendizaje. Se proporciona diversidad de enfoques y se relaciona la economía con otras ciencias sociales. Se abordan temas transversales y se utilizan recursos como exposiciones orales, actividades, coloquios, videos y herramientas en línea.</t>
+  </si>
+  <si>
+    <t>La asignatura de Economía se estructura en siete bloques temáticos que abordan los aspectos clave de las empresas y su gestión. Se exploran temas como la empresa y el empresario, el desarrollo empresarial, la organización y dirección, la función productiva, la función comercial, la información en la empresa y la función financiera. La metodología se basa en el planteamiento de problemas cercanos al entorno, el fomento del aprendizaje significativo, la indagación, el trabajo cooperativo y el uso de diversos recursos como exposiciones, actividades, coloquios y tecnologías de la información. La organización didáctica se establece en unidades que cubren cada uno de los temas mencionados, promoviendo la comprensión de conceptos, el análisis de casos prácticos y la aplicación de técnicas empresariales.</t>
   </si>
   <si>
     <t>La metodología didáctica en la asignatura de Química en Bachillerato se enfoca en favorecer la capacidad de los estudiantes para aprender de forma autónoma, trabajar en equipo y aplicar métodos de investigación apropiados. La especialización de las materias en esta etapa determina la metodología, considerando el componente epistemológico y las exigencias del conocimiento específico de la Química. Se busca adaptarse a las características de los estudiantes, fomentar la autonomía, promover la participación activa, despertar el interés por el aprendizaje, integrar conocimientos de diferentes disciplinas, desarrollar capacidades intelectuales y asegurar la funcionalidad práctica de los contenidos. Se emplea una variedad de metodologías para atender las diferentes formas de aprendizaje de los estudiantes.</t>
@@ -231,7 +249,7 @@
     <t>En la asignatura de TIC se abordan diversos contenidos, entre ellos: estructuras de almacenamiento de datos, como variables, vectores y matrices; diagramas de flujo y su diseño utilizando herramientas informáticas; transformación de diagramas de flujo en pseudocódigo o código fuente; programación modular con módulos, procedimientos y funciones; diseño y realización de pruebas, depuración y optimización; documentación, análisis de código y repositorios de código; uso básico de entornos de desarrollo para edición de programas y generación de ejecutables; lenguajes de marcado para la creación de documentos web; accesibilidad y usabilidad en Internet; herramientas de gestión de contenidos de la web 2.0; características de la web 2.0; medidas de seguridad físicas y lógicas en redes, incluyendo copias de seguridad, control de acceso y análisis de logs; seguridad lógica, protección contra virus y respaldo de información; seguridad física en redes; y tipos de código malicioso y sus usos, como virus, troyanos, puertas traseras y publicidad.</t>
   </si>
   <si>
-    <t>La asignatura de Lengua Castellana y Literatura se basa en un enfoque competencial que busca mejorar la capacidad comunicativa de los estudiantes. Para lograr este objetivo, se emplea una metodología innovadora que incluye enfoques comunicativos y proyectos transversales, promoviendo la reflexión metacomunicativa y el contraste entre lenguas. Se fomenta el desarrollo de habilidades de comprensión y expresión oral y escrita a través de diversas actividades, como lectura, análisis y comentario de textos, producción de textos en distintos formatos, exposiciones y presentaciones orales, y lectura digital. Se enfatiza el aprendizaje mediante actividades complejas y el trabajo colaborativo, donde se aplican las capacidades adquiridas y se fomenta la autoevaluación y la evaluación entre iguales. Se fomenta la creatividad y el pensamiento crítico a través de actividades abiertas que requieren procesos cognitivos complejos. Además, se integran las TIC como herramientas fundamentales para el aprendizaje y la comunicación.</t>
+    <t>La metodología didáctica en la asignatura de Geología se enfoca en fomentar la autonomía y la capacidad de autoaprendizaje del alumnado, así como en promover el trabajo en equipo y la aplicación de métodos de investigación. Se emplean diversas estrategias metodológicas, como crear un ambiente de aula propicio para aprendizajes significativos y comunicación, fomentar la autonomía y la creatividad a través de diseños experimentales y el uso de las TIC, tener en cuenta las ideas previas de los estudiantes para diseñar actividades cooperativas, proporcionar herramientas para iniciarse en la investigación, relacionar los fenómenos geológicos/ambientales con la vida cotidiana, plantear situaciones problemáticas abiertas, promover una cultura científica interdisciplinaria, construir aprendizajes cooperativos, generar una imagen dinámica de la ciencia y facilitar el proceso de aprendizaje del alumnado mediante la evaluación y la orientación.</t>
   </si>
   <si>
     <t>Lingua e Literatura 2º Bacharelato de la editorial Santillana.</t>
@@ -243,9 +261,6 @@
     <t>La materia de Lingua Galega e Literatura tiene como objetivo desarrollar la competencia comunicativa en los estudiantes a través de diversas habilidades y actividades. Se busca mejorar la comprensión, interpretación y valoración de textos orales y escritos de diferentes géneros, como informativos, argumentativos y literarios. Se promueve la producción de textos orales y escritos adecuados a diferentes situaciones comunicativas, con énfasis en la coherencia, cohesión y corrección. Se fomenta la participación activa en debates, la exposición oral de textos expositivos y argumentativos, y la interacción oral en temas personales y sociales. Además, se trabaja en la aplicación de conocimientos gramaticales y se hace hincapié en la pronunciación correcta. También se abordan aspectos históricos y sociolingüísticos del gallego, así como la literatura gallega de diferentes períodos. El uso de recursos tecnológicos y la integración de las TIC en las actividades son aspectos destacados en la metodología.</t>
   </si>
   <si>
-    <t>La asignatura de inglés abarca una variedad de contenidos que se enfocan en el desarrollo de habilidades de escucha, habla, lectura y escritura. En relación a la escucha, se busca comprender discursos, presentaciones y conferencias en inglés estándar, así como mensajes transmitidos por medios de comunicación en diferentes acentos. En cuanto a la expresión oral, se trabaja en la planificación y utilización de estrategias de comunicación, participación en conversaciones y debates, expresión de opiniones y descripción de experiencias. En la comprensión de textos escritos, se aborda la identificación del propósito comunicativo, la localización de información general y específica, y se utilizan estrategias de lectura para comprender textos de diversos géneros. En la escritura, se enfatiza la composición de textos coherentes y cohesionados en diferentes ámbitos, así como la presentación adecuada de los mismos. Además, se desarrolla el conocimiento lingüístico, incluyendo aspectos morfosintácticos, léxicos, de pronunciación y reflexión sobre la aprendizaje. También se promueve la conciencia intercultural y el valor de la diversidad lingüística y cultural, así como el uso adecuado de la lengua en contextos socioculturales.</t>
-  </si>
-  <si>
     <t>La metodología en la asignatura de inglés se basa en el enfoque constructivista, teniendo en cuenta los conocimientos previos de los alumnos y fomentando su crecimiento personal y socialización. Se busca el desarrollo de competencias que permitan a los alumnos aplicar los conocimientos en diferentes contextos de su vida. Se utiliza el humor y el juego como elementos motivadores para facilitar el aprendizaje. Se ofrece flexibilidad en la programación para adaptarse a los diferentes ritmos de aprendizaje de los niños. Se promueve la actividad y participación del alumno, siendo este el centro del proceso de enseñanza-aprendizaje. Se valora el error como parte natural del proceso de aprendizaje. La evaluación individual y grupal es importante para asegurar la calidad del aprendizaje. Se busca una aprendizaje globalizado que relacione diferentes áreas curriculares. Se promueve la idea de que el aprendizaje es permanente y que los conocimientos adquiridos pueden aplicarse en diferentes situaciones de la vida.</t>
   </si>
   <si>
@@ -255,45 +270,15 @@
     <t xml:space="preserve">La metodología de la asignatura de Filosofía se basa en el enfoque constructivista de la aprendizaje significativo. El objetivo es que los alumnos comprendan las grandes cuestiones filosóficas, los contextos en los que surgieron y las relaciones entre ellas, desarrollando así su capacidad crítica para comprender el mundo en el que viven. </t>
   </si>
   <si>
-    <t>En matemáticas se hacen pruebas escritas por una o varias unidades didácticas y una recuperación por trimestre.</t>
-  </si>
-  <si>
-    <t>En matemáticas no se pide libro, o lo indicará el profesor en clase</t>
-  </si>
-  <si>
-    <t>Los profesores de matemáticas son: Tomás Corona y Luis A. Fernández</t>
-  </si>
-  <si>
-    <t>La metodología didáctica en matemáticas se basa en utilizar situaciones cercanas al alumnado, resolver problemas en diferentes contextos, utilizar diversos materiales y métodos de resolución, integrar tecnologías de la información y comunicación, y facilitar el trabajo del alumnado a través de recursos en línea. Estos enfoques buscan diversificar los contenidos y métodos de trabajo, adaptándolos a las capacidades del alumnado y promoviendo el éxito académico.</t>
-  </si>
-  <si>
-    <t>En matemáticas se hace la valoración conjunta de los instrumentos de evaluación (OBS), (CAD), (TI)/(CON El), (TG) y (PO) supondrá el 20% de la cualificación, mientras que la nota obtenida en las pruebas escritas.</t>
-  </si>
-  <si>
-    <t>En tecnolog;ia se hace un examen escrito por unidad didáctica y al final de cada evaluación una recuperación.</t>
+    <t>practicas</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en matemáticas.</t>
   </si>
   <si>
     <t>Los exámenes forman el 80% de la nota de tecnología, los trabajos el 15% y la actitud el 5%.</t>
   </si>
   <si>
-    <t>La metodología en tecnología se basa en la actividad del alumno, tanto intelectual como manual, con un sentido y significado claro. Se enfoca en el uso de máquinas, herramientas y materiales, y la función del profesor es organizar el proceso de aprendizaje. Se adquieren conocimientos técnicos y científicos, se aplican en el análisis y transformación de objetos tecnológicos, y se desarrollan proyectos globales. La propuesta didáctica busca un aprendizaje comprensivo y significativo, con una exposición clara y estrategias que fomenten el análisis y comprensión tecnológica.</t>
-  </si>
-  <si>
-    <t>En tecnología se abordan temas relacionados con la estructura interna y propiedades de los materiales, procedimientos de medida de propiedades y técnicas de modificación . También se estudian máquinas: conceptos fundamentales, diseño asistido y simulación, máquinas térmicas y eléctricas, así como magnitudes que definen las máquinas. En sistemas automáticos se analizan la estructura, elementos de control, diseño y simulación, representación de señales y experimentación en circuitos eléctricos o neumáticos. En circuitos lógicos se estudia el álgebra de Boole, simplificación de funciones, diseño y simulación de circuitos combinacionales y secuenciales, y aplicaciones. Por último, se abordan los microprocesadores y sus aplicaciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profesores de tecnología: Jorge Gómez Suárez y Constantino Álvarez Muíña </t>
-  </si>
-  <si>
-    <t>En tecnología no se pide libro, o lo indicará el profesor en clase</t>
-  </si>
-  <si>
-    <t>En física se hacen dos pruebas escritas por evaluación y un examen de recuperación por trimestre.</t>
-  </si>
-  <si>
-    <t>Los profesores de física son: Rita Rial Castiñeiras y Enrique Cao Rodríguez</t>
-  </si>
-  <si>
     <t>Los contenidos de física proporcionan a los estudiantes una herramienta de análisis y reconocimiento, con aplicaciones más allá de sus objetivos específicos. Se abordan aspectos científicos, fenómenos ondulatorios y la Física del siglo XX, incluyendo la Teoría Especial de la Relatividad y la Física Cuántica. También se estudian las partículas fundamentales y las interacciones de la naturaleza. La materia contribuye al desarrollo de competencias clave, como el trabajo en equipo, la lectura crítica, el pensamiento matemático y las habilidades tecnológicas.</t>
   </si>
   <si>
@@ -306,73 +291,52 @@
     <t>El 90% de la nota de física es la media ponderada de los exámenes y el 10% restante corresponde al resultado de trabajos y proyectos.</t>
   </si>
   <si>
+    <t>No hay actividades extracurriculares en física.</t>
+  </si>
+  <si>
     <t>Se usa el libro de Física 2 Bachillerato Santillana</t>
   </si>
   <si>
-    <t>En alemán se hace un examen escrito tras cada lección.</t>
-  </si>
-  <si>
-    <t>En alemán se usa el libro Logisch Neu B1 de Klett</t>
-  </si>
-  <si>
-    <t>Las profesoras de alemán son Gemma Paredes Suárez y Mónica Bouza Bellas</t>
-  </si>
-  <si>
-    <t>La metodología utilizada en alemán se enfoca en el desarrollo de la competencia comunicativa en todas sus dimensiones: pragmática, lingüística, sociolingüística y literaria, proporcionando herramientas y conocimientos para comunicarse eficazmente en situaciones personales, sociales y profesionales en alemán.</t>
-  </si>
-  <si>
-    <t>El requisito en alemán es haber superado y aprobado la asignatura de alemán de 1º bachillerato.</t>
-  </si>
-  <si>
     <t>El 30% de la nota de alemán son los exámenes de gramática, el 10% el examen oral, el 20% exámenes modelo de B1/ABAU, 20% tests de vocabulario y el 20% la participación activa en clase.</t>
   </si>
   <si>
     <t>Alemán es una asignatura que pondera mucho en todos los grados relacionados con las letras, las ciencias sociales y jurídicas.</t>
   </si>
   <si>
-    <t>En biología se hace al menos un examen por evaluación.</t>
-  </si>
-  <si>
     <t>El libro que se usa es Biologia de 2º Bachillerato de SM</t>
   </si>
   <si>
     <t>En la programación de biología no se especifiac las competencias de la asginatura de Biología en 2º de bachillerato.</t>
   </si>
   <si>
-    <t>Los profesores de biología son: Oscar Bargo Saavedra y Xaime Manuel González Ortega</t>
-  </si>
-  <si>
     <t>En la programación de biología no se especifiac las metodologías de la asginatura de Biología en 2º de bachillerato.</t>
   </si>
   <si>
     <t>El 90% de la nota de biología la forman las pruebas escritas, y el 10% restante los trabajos opcionales.</t>
   </si>
   <si>
-    <t>En dibujo técnico se hacen al menos dos exámenes por evaluación.</t>
-  </si>
-  <si>
-    <t>En dibujo técnico no hay libro.</t>
+    <t>No hay actividades extracurriculares en biología.</t>
+  </si>
+  <si>
+    <t>En la asignatura de dibujo artístico se abordan diversos temas como la percepción y descripción objetiva de la forma, los modelos analíticos y sintéticos, la retentiva y memoria visual, la psicología de la forma y composición, el comportamiento de las formas tridimensionales en el espacio, el valor expresivo de la luz y el color, la ruptura de la tradición figurativa, la representación de la forma con fines expresivos, el análisis de la figura humana, la anatomía artística, el estudio del movimiento de la figura humana, la antropometría, las técnicas secas y húmedas en el proceso creativo, y el empleo de las herramientas TIC. Se fomenta una actitud creativa en el proceso de aprendizaje.</t>
+  </si>
+  <si>
+    <t>Se puede hacer algún proyecto artístico en dibujo artístico.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en dibujo artístico.</t>
   </si>
   <si>
     <t>Las competencias clave de dibujo técnico están indicadas en el DOG</t>
   </si>
   <si>
-    <t>Los profesores de dibujo técnico son: Pedro Ávila Durán y Juan José Raíces Silva</t>
-  </si>
-  <si>
     <t>La metodología no se especifica en la programación de la asignatura de dibujo técnico.</t>
   </si>
   <si>
     <t>Es necesario haber superado y aprobado el dibujo técnico de 1º bachillerato</t>
   </si>
   <si>
-    <t>Las prácticas valen el 20% de la nota de dibujo técnico, el 80% son pruebas frente al profesor</t>
-  </si>
-  <si>
-    <t>El libro que se usa en francés es: Génération Lycée 2 de la Editorial Santillana</t>
-  </si>
-  <si>
-    <t>Las competencias que se desarrollan en francés son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+    <t>No hay actividades extracurriculares en dibujo técnico.</t>
   </si>
   <si>
     <t>La profesora de francés es: Mari Carmen Maril</t>
@@ -393,18 +357,12 @@
     <t>Francés pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
-    <t>En historia se hacen al menos dos exámenes por evaluación.</t>
-  </si>
-  <si>
-    <t>El libro de texto que se usa en historia es: Historia de España de la Editorial Consorcio</t>
+    <t>Puede haber actividades extracurriculares en francés.</t>
   </si>
   <si>
     <t>Las competencias que se desarrollan en la asignatura de historia son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
   </si>
   <si>
-    <t>Los profesores de historia son: D. Leopoldo Fernández Gasalla, D. Davide Loimil González, Dna. María Soledad Milmanda Cajaraville y D. David Taboada Calvo</t>
-  </si>
-  <si>
     <t>La asignatura de historia se estructura en tres bloques y abarca la historia de España desde el siglo XVIII hasta la actualidad. En el primer bloque se estudian temas como la historia de España hasta el siglo XVIII, la influencia francesa en el periodo de los primeros Borbones, la crisis del Antiguo Régimen y la construcción del Estado liberal. Estos contenidos se desarrollan en el primer trimestre en 29 sesiones de clase. El segundo bloque se centra en la Restauración Borbónica, las transformaciones económicas del siglo XIX y la crisis del sistema de la Restauración hasta la caída de la monarquía. Estos temas se abordan en el segundo trimestre en 29 sesiones de clase. El tercer bloque trata la Segunda República, la Guerra Civil en un contexto internacional, la dictadura franquista y la normalización democrática de España y su integración en Europa. Estos temas se desarrollan en el tercer trimestre.</t>
   </si>
   <si>
@@ -423,16 +381,7 @@
     <t>Historia pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
-    <t>Se hacen al menos dos exámenes por evaluación en química.</t>
-  </si>
-  <si>
-    <t>El libro que se usa en química es: Inicia Dual Química de la editorial Oxford.</t>
-  </si>
-  <si>
-    <t>Las competencias que se desarrollan en química son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
-  </si>
-  <si>
-    <t>Los profesores de química son: María Dores Casal Pereira y Jesús Fidalgo Fernández.</t>
+    <t>No hay actividades extracurriculares en historia.</t>
   </si>
   <si>
     <t>Es necesario haber cursado química en 1º de bachillerato.</t>
@@ -447,13 +396,7 @@
     <t>Química pondera mucho en aquellos grados relacionados con las ciencias naturales y físicaas, y con las ingenierías.</t>
   </si>
   <si>
-    <t>En TIC se hacen varias pruebas teórico-prácticas por trimestre.</t>
-  </si>
-  <si>
-    <t>En TIC no se usa libro de texto, tan solo materiales que están en la red.</t>
-  </si>
-  <si>
-    <t>Las competencias que se desarrollan en TIC son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+    <t>No hay actividades extracurriculares en química.</t>
   </si>
   <si>
     <t>El profesor de química es: Jorge Gómez Suárez</t>
@@ -471,19 +414,43 @@
     <t>TIC pondera mucho en aquellos grados relacionados con las ciencias naturales y físicaas, y con las ingenierías.</t>
   </si>
   <si>
+    <t>No hay actividades extracurriculares en TIC.</t>
+  </si>
+  <si>
+    <t>La profesora de geología es: Ana Martínez San Luis</t>
+  </si>
+  <si>
+    <t>Es necesario haber cursado geología en 1º de bachillerato.</t>
+  </si>
+  <si>
+    <t>Como todas las asignaturas, geología requiere de dedicación, estudio y esfuerzo para poder aprobarla satisfactoriamente.</t>
+  </si>
+  <si>
+    <t>El 90% de la nota de geología la conforman los exámenes escritos, el 10% restante las actividades complementarias.</t>
+  </si>
+  <si>
+    <t>Geología pondera mucho en aquellos grados relacionados con las ciencias naturales.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en geología.</t>
+  </si>
+  <si>
     <t>La asignatura de lengua abarca diversos aspectos relacionados con la comunicación oral y escrita, el análisis del lenguaje y la literatura del siglo XX hasta la actualidad. Se estudia la comunicación oral en ámbitos educativos, periodísticos, profesionales y empresariales, así como la comprensión y producción de textos orales de los medios de comunicación social. Se abordan también la comunicación escrita en diversos ámbitos sociales, el análisis y comentario de textos escritos, y la planificación, realización, revisión y mejora de textos escritos. En cuanto al lenguaje, se estudia el léxico castellano, las categorías gramaticales (sustantivo, adjetivo, verbo, pronombre, determinativos, adverbio, preposiciones y conjunciones), el significado de las palabras, las estructuras sintácticas, la organización textual, la objetividad y subjetividad, la deixis temporal, espacial y personal, y el español actual en diferentes contextos. Además, se analizan obras y fragmentos literarios representativos del siglo XX hasta la actualidad, se reflexiona sobre estereotipos y se realizan trabajos educativos relacionados con la literatura contemporánea.</t>
   </si>
   <si>
-    <t>Las profesoras de lengua son: Ana Díaz Faraldo, Carmen Villasenín Carballo, Marta Gende García y María Isabel Fernández Domínguez.</t>
-  </si>
-  <si>
-    <t>Las competencias que se desarrollan en lengua son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
-  </si>
-  <si>
-    <t>En lengua no se usa libro, indica el profesor los contenidos.</t>
-  </si>
-  <si>
-    <t>En lengua se hacen al menos dos exámenes por evaluación.</t>
+    <t>Es necesario haber cursado de literatura en 1º de bachillerato.</t>
+  </si>
+  <si>
+    <t>Como todas las asignaturas, literatura requiere de dedicación, estudio y esfuerzo para poder aprobarla satisfactoriamente.</t>
+  </si>
+  <si>
+    <t>El 90% de la nota de literatura la forman las pruebas escritas, el 10% otro tipo de trabajos.</t>
+  </si>
+  <si>
+    <t>Literatura pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en literatura.</t>
   </si>
   <si>
     <t>No es necesario haber cursado lengua en 1º de bachillerato.</t>
@@ -498,18 +465,12 @@
     <t>Lengua pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
+    <t>No hay actividades extracurriculares en lengua.</t>
+  </si>
+  <si>
     <t>La materia de lingua trata de enseñar los conceptos de gramática y sintaxis que corresponden al nivel de 2º de bachillerato que se requieren para superar satisfactoriamente la ABAU.</t>
   </si>
   <si>
-    <t>En lingua se hacen al menos dos por evaluación.</t>
-  </si>
-  <si>
-    <t>Las competencias que se desarrollan en lingua son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
-  </si>
-  <si>
-    <t>Las profesoras de lingua son: Rosa López Gato y Margarita Romero Lorenzo</t>
-  </si>
-  <si>
     <t>No es necesario haber cursado esta asignatura en 1º de bachillerato.</t>
   </si>
   <si>
@@ -522,18 +483,30 @@
     <t>Lingua pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
-    <t>En inglés se hace al menos un examen por evaluación.</t>
-  </si>
-  <si>
-    <t>El libro que se usa en inglés es: Advantage 2 de la editorial Burlington</t>
+    <t>No hay actividades extracurriculares en lingua.</t>
+  </si>
+  <si>
+    <t>Los contenidos de música son toda la Historia de la música que considere oportuna el profesor (no hay programación).</t>
+  </si>
+  <si>
+    <t>La metodología de música es la que considere el profesor (no hay programación).</t>
+  </si>
+  <si>
+    <t>Es necesario haber cursado música en 1º de bachillerato.</t>
+  </si>
+  <si>
+    <t>Música no requiere apenas de dedicación, estudio y esfuerzo para poder aprobarla satisfactoriamente.</t>
+  </si>
+  <si>
+    <t>El profesor de música decidirá arbitrariamente cuánto vale cada parte (no hay programación).</t>
+  </si>
+  <si>
+    <t>Música pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
     <t>Las competencias que se desarrollan en la inglés son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
   </si>
   <si>
-    <t>Las profesoras de inglés son: Ana Fábregas, Mari France Mayán, Ana Morón y Rose Rutherford.</t>
-  </si>
-  <si>
     <t>Como todas las asignaturas, inglés requiere de dedicación, estudio y esfuerzo para poder aprobarla satisfactoriamente.</t>
   </si>
   <si>
@@ -543,13 +516,7 @@
     <t>Inglés pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
   </si>
   <si>
-    <t>En filosofía se hace al menos un examen por evaluación.</t>
-  </si>
-  <si>
-    <t>En filosofía no se usa libro de texto, el profesor enunciará los apuntes.</t>
-  </si>
-  <si>
-    <t>Las competencias que se desarrollan en filosofía son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+    <t>Puede haber de vez en cuando alguna actividad extracurricular en inglés.</t>
   </si>
   <si>
     <t>Los profesores son: José Domingo de Prada Rodríguez y Manuel Jesús Lama Grande</t>
@@ -565,6 +532,459 @@
   </si>
   <si>
     <t>FIlosofía pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
+  </si>
+  <si>
+    <t>No hay actividades extracurriculares en filosofía.</t>
+  </si>
+  <si>
+    <t>El profesor de economía es Manuel Maximino Fandiño Castro</t>
+  </si>
+  <si>
+    <t>Es necesario haber cursado economía en 1º de bachillerato.</t>
+  </si>
+  <si>
+    <t>Como todas las asignaturas, economía requiere de dedicación, estudio y esfuerzo para poder aprobarla satisfactoriamente.</t>
+  </si>
+  <si>
+    <t>El 90% de la nota de economía la conforman los exámenes escritos, y el 10% el trabajo en clase y en el aula virtual.</t>
+  </si>
+  <si>
+    <t>Economía pondera mucho en aquellos grados relacionados con las artes, lenguas, CCSS y lo jurídico.</t>
+  </si>
+  <si>
+    <t>En dinujo artístico no hay libro 📚🚫.</t>
+  </si>
+  <si>
+    <t>Se hace un examen 📝🧠 de francés por cada unidad dada.</t>
+  </si>
+  <si>
+    <t>Se hacen al menos dos exámenes 📝🧠 por evaluación en química.</t>
+  </si>
+  <si>
+    <t>Los profesores 👨‍🏫 de matemáticas son: Tomás Corona y Luis A. Fernández</t>
+  </si>
+  <si>
+    <t>Los profesores 👨‍🏫 de física son: Rita Rial Castiñeiras y Enrique Cao Rodríguez</t>
+  </si>
+  <si>
+    <t>Los profesores 👨‍🏫 de biología son: Oscar Bargo Saavedra y Xaime Manuel González Ortega</t>
+  </si>
+  <si>
+    <t>Los profesores 👨‍🏫 de dibujo artístico son: Pedro Ávila Durán y Juan José Raíces Silva</t>
+  </si>
+  <si>
+    <t>Los profesores 👨‍🏫 de dibujo técnico son: Pedro Ávila Durán y Juan José Raíces Silva</t>
+  </si>
+  <si>
+    <t>Los profesores 👨‍🏫 de historia son: D. Leopoldo Fernández Gasalla, D. Davide Loimil González, Dna. María Soledad Milmanda Cajaraville y D. David Taboada Calvo</t>
+  </si>
+  <si>
+    <t>Los profesores 👨‍🏫 de química son: María Dores Casal Pereira y Jesús Fidalgo Fernández.</t>
+  </si>
+  <si>
+    <t>Los profesores 👨‍🏫 de música son: Manuel Jesús Cela Folgueiras y Enrique Outomuro Vázquez</t>
+  </si>
+  <si>
+    <t>Las profesoras 👨‍🏫 de alemán son Gemma Paredes Suárez y Mónica Bouza Bellas</t>
+  </si>
+  <si>
+    <t>Las profesoras 👨‍🏫 de literatura son: Ana Díaz Faraldo, Carmen Villasenín Carballo, Marta Gende García y María Isabel Fernández Domínguez.</t>
+  </si>
+  <si>
+    <t>Las profesoras 👨‍🏫 de lengua son: Ana Díaz Faraldo, Carmen Villasenín Carballo, Marta Gende García y María Isabel Fernández Domínguez.</t>
+  </si>
+  <si>
+    <t>Las profesoras 👨‍🏫 de lingua son: Rosa López Gato y Margarita Romero Lorenzo</t>
+  </si>
+  <si>
+    <t>Las profesoras 👨‍🏫 de inglés son: Ana Fábregas, Mari France Mayán, Ana Morón y Rose Rutherford.</t>
+  </si>
+  <si>
+    <t>Matemáticas es una asignatura con 4 horas ⏰ semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
+  </si>
+  <si>
+    <t>Tecnología es una asignatura con 4 horas ⏰ semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
+  </si>
+  <si>
+    <t>Física es una asignatura con 4 horas ⏰ semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
+  </si>
+  <si>
+    <t>Alemán es una asignatura con 4 horas ⏰ semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
+  </si>
+  <si>
+    <t>Biología es una asignatura con 4 horas ⏰ semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
+  </si>
+  <si>
+    <t>Dibujo artístico es una asignatura con 4 horas ⏰ semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
+  </si>
+  <si>
+    <t>Dibujo técnico es una asignatura con 4 horas ⏰ semanales, por lo que requiere de una elevada cantidad de tiempo, dedicación  y esfuerzo.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de matemáticas.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de tecnología.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de física.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas ⏰ semanales de alemán.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de biología.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de dibujo artístico.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de dibujo técnico</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas ⏰ semanales de francés.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de historia.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de química.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de TIC.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de geología.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de literatura.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas ⏰ semanales de lengua.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas ⏰ semanales de lingua.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas ⏰ semanales de música.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas ⏰ semanales de inglés.</t>
+  </si>
+  <si>
+    <t>Se imparten 3 horas ⏰ semanales de filosofía.</t>
+  </si>
+  <si>
+    <t>Se imparten 4 horas ⏰ semanales de economía.</t>
+  </si>
+  <si>
+    <t>La asignatura de Geología abarca una amplia variedad de contenidos. Algunos de ellos incluyen: la perspectiva general de la geología, sus objetos de estudio, métodos de trabajo y utilidad científica y social; la metodología científica en geología; el tiempo geológico y principios fundamentales de la geología; la Tierra como planeta dinámico y la teoría de la Tectónica de Placas; la xeoplanetología y las características de otros planetas en comparación con la evolución geológica de la Tierra; la geología en la vida cotidiana y los problemas ambientales y geológicos globales. También se abordan temas como la materia mineral, los minerales y sus características, técnicas de identificación de minerales, formación y transformación de minerales, rocas ígneas, sedimentarias y metamórficas, la tectónica de placas, los procesos geológicos externos, el relieve y la estructura geológica, el tiempo en geología, métodos de datación, interpretación de cortes y mapas geológicos, cambio climático, recursos minerales y energéticos, eventos geológicos en la Península Ibérica y las Islas Canarias, técnicas de interpretación cartográfica y orientación, y prácticas 📝 de campo para el estudio del patrimonio geológico.</t>
+  </si>
+  <si>
+    <t>Las prácticas 📝 valen el 20% de la nota de dibujo artístico, el 80% son pruebas frente al profesor.</t>
+  </si>
+  <si>
+    <t>Las prácticas 📝 valen el 20% de la nota de dibujo técnico, el 80% son pruebas frente al profesor</t>
+  </si>
+  <si>
+    <t>Se hacen prácticas 📝 en el taller de tecnología.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas 📝 en alemán.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas 📝 en dibujo artístico.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas 📝 en dibujo técnico.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas 📝 en francés.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas 📝 en historia.</t>
+  </si>
+  <si>
+    <t>Se hacen prácticas 📝 en el laboratorio 🔬🧪 de geología.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas 📝 en literatura.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas 📝 en lengua.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas 📝 en lingua.</t>
+  </si>
+  <si>
+    <t>Se hacen prácticas 📝  con los instrumentos y la banda en música.</t>
+  </si>
+  <si>
+    <t>No se hacen prácticas 📝 en filosofía.</t>
+  </si>
+  <si>
+    <t>El Dibujo Técnico es una asignatura fundamental en la ABAU y en disciplinas como ingeniería, diseño industrial, bellas artes y arquitectura. Su objetivo es desarrollar habilidades de comunicación objetiva en un entorno complejo donde el diseño y la fabricación de productos son vitales. Se utiliza como herramienta para visualizar y definir ideas con precisión en proyectos 📂💼 e investigaciones. En el curso de Dibujo Técnico II se abordan bloques de geometría, sistemas de representación y normalización, preparando a los estudiantes para proyectos 📂💼 prácticos en diseño gráfico, industrial o arquitectónico.</t>
+  </si>
+  <si>
+    <t>El proceso de resolución de problemas en matemáticas, el uso de estrategias y procedimientos, la obtención de soluciones coherentes, la iniciación a la demostración matemática y el desarrollo de habilidades de comunicación oral y escrita. Además, se fomenta el uso de herramientas tecnológicas para recopilar, organizar y representar datos, así como la realización de proyectos 📂💼 e investigaciones matemáticas individualmente y en equipo. También se practica la matematización y modelización en contextos reales y matemáticos.</t>
+  </si>
+  <si>
+    <t>La metodología de dibujo artístico utilizada se enfoca en el desarrollo de la competencia artística del alumnado, abarcando la conciencia de expresiones culturales y conectándose con otras competencias clave. Las actividades propuestas permiten el uso de diversos recursos y formas expresivas, promoviendo la individualidad y el espíritu colaborativo a través de proyectos 📂💼 grupales. Los contenidos se presentan mediante modelos reales en el aula y medios digitales, y se utilizan como ejemplos. La metodología activa se centra en el saber ver y saber hacer, fomentando la creatividad y expresividad de cada estudiante a través de una atención individualizada.</t>
+  </si>
+  <si>
+    <t>La asignatura de Literatura se basa en un enfoque competencial que busca mejorar la capacidad comunicativa de los estudiantes. Para lograr este objetivo, se emplea una metodología innovadora que incluye enfoques comunicativos y proyectos 📂💼 transversales, promoviendo la reflexión metacomunicativa y el contraste entre lenguas. Se fomenta el desarrollo de habilidades de comprensión y expresión oral y escrita a través de diversas actividades, como lectura, análisis y comentario de textos, producción de textos en distintos formatos, exposiciones y presentaciones orales, y lectura digital. Se enfatiza el aprendizaje mediante actividades complejas y el trabajo colaborativo, donde se aplican las capacidades adquiridas y se fomenta la autoevaluación y la evaluación entre iguales. Se fomenta la creatividad y el pensamiento crítico a través de actividades abiertas que requieren procesos cognitivos complejos. Además, se integran las TIC como herramientas fundamentales para el aprendizaje y la comunicación.</t>
+  </si>
+  <si>
+    <t>La asignatura de Lengua Castellana y Literatura se basa en un enfoque competencial que busca mejorar la capacidad comunicativa de los estudiantes. Para lograr este objetivo, se emplea una metodología innovadora que incluye enfoques comunicativos y proyectos 📂💼 transversales, promoviendo la reflexión metacomunicativa y el contraste entre lenguas. Se fomenta el desarrollo de habilidades de comprensión y expresión oral y escrita a través de diversas actividades, como lectura, análisis y comentario de textos, producción de textos en distintos formatos, exposiciones y presentaciones orales, y lectura digital. Se enfatiza el aprendizaje mediante actividades complejas y el trabajo colaborativo, donde se aplican las capacidades adquiridas y se fomenta la autoevaluación y la evaluación entre iguales. Se fomenta la creatividad y el pensamiento crítico a través de actividades abiertas que requieren procesos cognitivos complejos. Además, se integran las TIC como herramientas fundamentales para el aprendizaje y la comunicación.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 durante el curso en matemáticas.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en alemán.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en biología.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en dibujo técnico.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en francés.</t>
+  </si>
+  <si>
+    <t>Se hacen algunos proyectos 📂💼 en historia.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en química.</t>
+  </si>
+  <si>
+    <t>Se pueden hacer proyectos 📂💼 relacionados con la materia de TIC</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en geología.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en literatura.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en lengua.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en lingua.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en música.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 en inglés.</t>
+  </si>
+  <si>
+    <t>No se hacen grandes proyectos 📂💼 de filosofía.</t>
+  </si>
+  <si>
+    <t>En matemáticas ➗📐 se hacen pruebas escritas 📝🧠 por una o varias unidades didácticas y una recuperación por trimestre.</t>
+  </si>
+  <si>
+    <t>En matemáticas ➗📐 no se pide libro 📚🚫, o lo indicará el profesor en clase</t>
+  </si>
+  <si>
+    <t>La metodología didáctica En matemáticas ➗📐 se basa en utilizar situaciones cercanas al alumnado, resolver problemas en diferentes contextos, utilizar diversos materiales y métodos de resolución, integrar tecnologías de la información y comunicación, y facilitar el trabajo del alumnado a través de recursos en línea. Estos enfoques buscan diversificar los contenidos y métodos de trabajo, adaptándolos a las capacidades del alumnado y promoviendo el éxito académico.</t>
+  </si>
+  <si>
+    <t>En matemáticas ➗📐 se hace la valoración conjunta de los instrumentos de evaluación (OBS), (CAD), (TI)/(CON El), (TG) y (PO) supondrá el 20% de la cualificación, mientras que la nota obtenida en las pruebas escritas.</t>
+  </si>
+  <si>
+    <t>En matemáticas ➗📐 no se hacen prácticas 📝.</t>
+  </si>
+  <si>
+    <t>En tecnología 💻🔧 se hace un examen escrito 📝🧠 por unidad didáctica y al final de cada evaluación una recuperación.</t>
+  </si>
+  <si>
+    <t>En tecnología 💻🔧 no se pide libro 📚🚫, o lo indicará el profesor en clase</t>
+  </si>
+  <si>
+    <t>En tecnología 💻🔧 se abordan temas relacionados con la estructura interna y propiedades de los materiales, procedimientos de medida de propiedades y técnicas de modificación . También se estudian máquinas: conceptos fundamentales, diseño asistido y simulación, máquinas térmicas y eléctricas, así como magnitudes que definen las máquinas. En sistemas automáticos se analizan la estructura, elementos de control, diseño y simulación, representación de señales y experimentación en circuitos eléctricos o neumáticos. En circuitos lógicos se estudia el álgebra de Boole, simplificación de funciones, diseño y simulación de circuitos combinacionales y secuenciales, y aplicaciones. Por último, se abordan los microprocesadores y sus aplicaciones.</t>
+  </si>
+  <si>
+    <t>La metodología En tecnología 💻🔧 se basa en la actividad del alumno, tanto intelectual como manual, con un sentido y significado claro. Se enfoca en el uso de máquinas, herramientas y materiales, y la función del profesor es organizar el proceso de aprendizaje. Se adquieren conocimientos técnicos y científicos, se aplican en el análisis y transformación de objetos tecnológicos, y se desarrollan proyectos 📂💼 globales. La propuesta didáctica busca un aprendizaje comprensivo y significativo, con una exposición clara y estrategias que fomenten el análisis y comprensión tecnológica.</t>
+  </si>
+  <si>
+    <t>En tecnología 💻🔧 se pueden hacer algunos proyectos 📂💼 relacionados con la materia.</t>
+  </si>
+  <si>
+    <t>En tecnología 💻🔧 no hay actividades extracurriculares.</t>
+  </si>
+  <si>
+    <t>En física 🌡️💡 se hacen dos pruebas escritas 📝🧠 por evaluación y un examen de recuperación por trimestre.</t>
+  </si>
+  <si>
+    <t>En física 🌡️💡 no se hacen grandes proyectos.</t>
+  </si>
+  <si>
+    <t>En física 🌡️💡 se hacen prácticas 📝 en el laboratorio 🔬🧪.</t>
+  </si>
+  <si>
+    <t>En alemán 🇩🇪🗣️ se hace un examen escrito 📝🧠 tras cada lección.</t>
+  </si>
+  <si>
+    <t>En alemán 🇩🇪🗣️ se usa el libro Logisch Neu B1 de Klett</t>
+  </si>
+  <si>
+    <t>La metodología utilizada En alemán 🇩🇪🗣️ se enfoca en el desarrollo de la competencia comunicativa en todas sus dimensiones: pragmática, lingüística, sociolingüística y literaria, proporcionando herramientas y conocimientos para comunicarse eficazmente en situaciones personales, sociales y profesionales en alemán.</t>
+  </si>
+  <si>
+    <t>El requisito En alemán 🇩🇪🗣️ es haber superado y aprobado la asignatura de alemán de 1º bachillerato.</t>
+  </si>
+  <si>
+    <t>En alemán 🇩🇪🗣️ se pueden hacer algunas actividades extracurriculares.</t>
+  </si>
+  <si>
+    <t>En biología 🧬🌿 se hace al menos un examen 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>En biología 🧬🌿 se hacen prácticas 📝 en el laboratorio 🔬🧪.</t>
+  </si>
+  <si>
+    <t>En dibujo artístico ✏️📐 se hacen al menos dos exámenes 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>En dibujo artístico ✏️📐 la competencias clave están indicadas en el DOG.</t>
+  </si>
+  <si>
+    <t>En dibujo técnico 🖋️📏 se hacen al menos dos exámenes 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>En dibujo técnico 🖋️📏 no hay libro 📚🚫.</t>
+  </si>
+  <si>
+    <t>El francés 🇫🇷🗣️ es una asignatura de gran importancia como optativa, ya que hoy en día conocer tan solo dos lenguas es insuficiente. Además, El francés 🇫🇷🗣️ es hablado por millones de personas por todo el mundo, y es un importante aliado nacional en muchos ámbitos. En las clases nos aseguramos de enseñar la lengua de una forma fácil, correcta y entretenida.</t>
+  </si>
+  <si>
+    <t>El libro que se usa En francés 🇫🇷🗣️ es: Génération Lycée 2 de la Editorial Santillana</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan En francés 🇫🇷🗣️ son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>En historia 📜🕰️ se hacen al menos dos exámenes 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>El libro de texto que se usa En historia 📜🕰️ es: Historia de España de la Editorial Consorcio</t>
+  </si>
+  <si>
+    <t>El libro que se usa En química 🧪🔬 es: Inicia Dual Química de la editorial Oxford.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan En química 🧪🔬 son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>En química 🧪🔬 se hacen múltiples prácticas 📝 en el laboratorio 🔬🧪.</t>
+  </si>
+  <si>
+    <t>En TIC 🌐🖥️ se hacen varias pruebas 📝🧠 teórico-prácticas 📝 por trimestre.</t>
+  </si>
+  <si>
+    <t>En TIC 🌐🖥️ no se usa libro de texto 📚🚫, tan solo materiales que están en la red.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan En TIC 🌐🖥️ son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>En TIC 🌐🖥️ se hacen prácticas 📝 con los computadores.</t>
+  </si>
+  <si>
+    <t>En geología 🌋🌍 se abordan conocimientos, habilidades y actitudes propias de las ciencias geológicas y ambientales, divididos en siete bloques temáticos. Se trabajan aspectos como la experimentación En geología 🌋🌍 y ciencias ambientales, la tectónica de placas y geodinámica interna, los procesos geológicos externos, la mineralogía, la petrología, las capas fluidas de la Tierra y la gestión sostenible de los recursos naturales.</t>
+  </si>
+  <si>
+    <t>En geología 🌋🌍 se hará por lo menos una prueba escrita 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>El libro que se usa En geología 🌋🌍 es: Geología 2º bachillerato de la editorial Edelvives.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan En geología 🌋🌍 son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>En literatura 📖🎭 se hacen al menos dos exámenes 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>En literatura 📖🎭 no se usa libro 📚🚫, indica el profesor los contenidos.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan En literatura 📖🎭 son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>En literatura 📖🎭 se analizan obras y fragmentos literarios representativos del siglo XX hasta la actualidad, se reflexiona sobre estereotipos y se realizan trabajos educativos relacionados con la literatura contemporánea.</t>
+  </si>
+  <si>
+    <t>En lengua 🇪🇸🗣️ se hacen al menos dos exámenes 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>En lengua 🇪🇸🗣️ no se usa libro 📚🚫, indica el profesor los contenidos.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan En lengua 🇪🇸🗣️ son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>En lingua 🇬🇪🗣️ se hacen al menos dos exámenes 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan En lingua 🇬🇪🗣️ son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>En música 🎵🎹 se hace un único examen 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>En música 🎵🎹 no se usa libro 📚🚫, el profesor dictará los apuntes.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan En música 🎵🎹 son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>En inglés 🇬🇧🗣️ se hace al menos un examen 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>El libro que se usa En inglés 🇬🇧🗣️ es: Advantage 2 de la editorial Burlington</t>
+  </si>
+  <si>
+    <t>La asignatura de inglés abarca una variedad de contenidos que se enfocan en el desarrollo de habilidades de escucha, habla, lectura y escritura. En relación a la escucha, se busca comprender discursos, presentaciones y conferencias En inglés 🇬🇧🗣️ estándar, así como mensajes transmitidos por medios de comunicación en diferentes acentos. En cuanto a la expresión oral, se trabaja en la planificación y utilización de estrategias de comunicación, participación en conversaciones y debates, expresión de opiniones y descripción de experiencias. En la comprensión de textos escritos, se aborda la identificación del propósito comunicativo, la localización de información general y específica, y se utilizan estrategias de lectura para comprender textos de diversos géneros. En la escritura, se enfatiza la composición de textos coherentes y cohesionados en diferentes ámbitos, así como la presentación adecuada de los mismos. Además, se desarrolla el conocimiento lingüístico, incluyendo aspectos morfosintácticos, léxicos, de pronunciación y reflexión sobre la aprendizaje. También se promueve la conciencia intercultural y el valor de la diversidad lingüística y cultural, así como el uso adecuado de la lengua en contextos socioculturales.</t>
+  </si>
+  <si>
+    <t>En inglés 🇬🇧🗣️ no se hacen prácticas 📝.</t>
+  </si>
+  <si>
+    <t>En filosofía 🧠🤔 se trata de explicar las corrientes filosóficas y autores que marcaron la historia de la filosofía, y que además resultan básicos para superar correctamente la ABAU.\</t>
+  </si>
+  <si>
+    <t>En filosofía 🧠🤔 se hace al menos un examen 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>En filosofía 🧠🤔 no se usa libro de texto 📚🚫, el profesor enunciará los apuntes.</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan En filosofía 🧠🤔 son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>En economía 💰📈 se hacen al menos dos exámenes 📝🧠 por evaluación.</t>
+  </si>
+  <si>
+    <t>El libro que se usa En economía 💰📈 es Economía 2º bachillerato de la editorial SM</t>
+  </si>
+  <si>
+    <t>Las competencias que se desarrollan En economía 💰📈 son: Comunicación lingüística (CCL), Competencia matemática y competencias básicas en ciencia y tecnología (CMCCT),Competencia digital (CD), Aprender a aprender (CAA), Competencias sociales y cívicas (CSC), Sentido de iniciativa y espíritu emprendedor (CSIEE), Conciencia y expresiones culturales (CCEC).</t>
+  </si>
+  <si>
+    <t>En economía 💰📈 no se hacen grandes proyectos.</t>
+  </si>
+  <si>
+    <t>En economía 💰📈 no hay actividades extracurriculares.</t>
+  </si>
+  <si>
+    <t>En economía 💰📈 no se hacen prácticas 📝.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los profesores 👨‍🏫 de tecnología: Jorge Gómez Suárez y Constantino Álvarez Muíña </t>
   </si>
 </sst>
 </file>
@@ -932,11 +1352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314BEB4-A4D8-41A9-B31E-6027A7F74DE0}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,23 +1364,23 @@
     <col min="1" max="1" width="22.21875" customWidth="1"/>
     <col min="2" max="4" width="44.44140625" customWidth="1"/>
     <col min="5" max="5" width="44.77734375" customWidth="1"/>
-    <col min="6" max="7" width="44.88671875" customWidth="1"/>
-    <col min="8" max="8" width="45.44140625" customWidth="1"/>
-    <col min="9" max="10" width="44.77734375" customWidth="1"/>
-    <col min="11" max="11" width="45" customWidth="1"/>
-    <col min="12" max="12" width="45.88671875" customWidth="1"/>
-    <col min="13" max="13" width="45.5546875" customWidth="1"/>
-    <col min="14" max="14" width="46.33203125" customWidth="1"/>
-    <col min="15" max="15" width="45.33203125" customWidth="1"/>
-    <col min="16" max="16" width="45.44140625" customWidth="1"/>
-    <col min="17" max="17" width="45.21875" customWidth="1"/>
-    <col min="18" max="18" width="45.77734375" customWidth="1"/>
-    <col min="19" max="19" width="45.21875" customWidth="1"/>
+    <col min="6" max="8" width="44.88671875" customWidth="1"/>
+    <col min="9" max="9" width="45.44140625" customWidth="1"/>
+    <col min="10" max="11" width="44.77734375" customWidth="1"/>
+    <col min="12" max="12" width="45" customWidth="1"/>
+    <col min="13" max="13" width="45.88671875" customWidth="1"/>
+    <col min="14" max="14" width="45.5546875" customWidth="1"/>
+    <col min="15" max="15" width="46.33203125" customWidth="1"/>
+    <col min="16" max="16" width="45.33203125" customWidth="1"/>
+    <col min="17" max="17" width="45.44140625" customWidth="1"/>
+    <col min="18" max="18" width="45.21875" customWidth="1"/>
+    <col min="19" max="19" width="45.77734375" customWidth="1"/>
+    <col min="20" max="20" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -972,40 +1392,55 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,40 +1454,55 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>52</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1060,141 +1510,185 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>232</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>273</v>
+      </c>
+      <c r="H4" t="s">
+        <v>275</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>152</v>
+        <v>285</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="T4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>267</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>114</v>
+        <v>175</v>
+      </c>
+      <c r="H5" t="s">
+        <v>276</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" t="s">
-        <v>166</v>
+        <v>291</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R5" t="s">
+        <v>306</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="T5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1208,445 +1702,737 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>115</v>
+        <v>274</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>319</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>143</v>
+      <c r="J7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
+      </c>
+      <c r="M7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="K16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1654,7 +2440,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1662,7 +2448,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1670,7 +2456,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1678,114 +2464,114 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
   </sheetData>
